--- a/requirement_internal.xlsx
+++ b/requirement_internal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghj12\Desktop\20202~1\소개론\SEEREA~3\TDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayoung\Desktop\PBL\SeeReal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11412FAC-F9C8-4C05-B704-67882A1F42DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320D15A6-EA17-4CF7-A6A5-40DE5B465B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3233F1C-5C15-4D9B-85D9-A60EB5D680A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D3233F1C-5C15-4D9B-85D9-A60EB5D680A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,20 +538,20 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="12.8984375" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="58.69921875" customWidth="1"/>
-    <col min="8" max="8" width="22.69921875" customWidth="1"/>
-    <col min="9" max="9" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="58.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -580,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -609,7 +609,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -638,7 +638,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -667,7 +667,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -696,7 +696,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -725,7 +725,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -754,7 +754,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -783,7 +783,7 @@
         <v>8915</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -812,7 +812,7 @@
         <v>8915</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -841,7 +841,7 @@
         <v>8915</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3</v>
       </c>
@@ -870,7 +870,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3</v>
       </c>
@@ -899,7 +899,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
